--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H2">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I2">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J2">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N2">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O2">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P2">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q2">
-        <v>116.1904011025719</v>
+        <v>132.7509725310388</v>
       </c>
       <c r="R2">
-        <v>116.1904011025719</v>
+        <v>531.0038901241551</v>
       </c>
       <c r="S2">
-        <v>0.003595293074510255</v>
+        <v>0.003679660766151485</v>
       </c>
       <c r="T2">
-        <v>0.003595293074510255</v>
+        <v>0.00185078137651698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H3">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I3">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J3">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N3">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O3">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P3">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q3">
-        <v>120.2605059720176</v>
+        <v>147.61747505449</v>
       </c>
       <c r="R3">
-        <v>120.2605059720176</v>
+        <v>885.7048503269401</v>
       </c>
       <c r="S3">
-        <v>0.003721234802146864</v>
+        <v>0.004091738244925852</v>
       </c>
       <c r="T3">
-        <v>0.003721234802146864</v>
+        <v>0.003087069741979827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H4">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I4">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J4">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N4">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O4">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P4">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q4">
-        <v>145.2083280091662</v>
+        <v>170.8145744874159</v>
       </c>
       <c r="R4">
-        <v>145.2083280091662</v>
+        <v>1024.887446924495</v>
       </c>
       <c r="S4">
-        <v>0.004493198156633375</v>
+        <v>0.004734727558257583</v>
       </c>
       <c r="T4">
-        <v>0.004493198156633375</v>
+        <v>0.003572182115935884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H5">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I5">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J5">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N5">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O5">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P5">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q5">
-        <v>202.2746708217909</v>
+        <v>231.1462633984292</v>
       </c>
       <c r="R5">
-        <v>202.2746708217909</v>
+        <v>1386.877580390575</v>
       </c>
       <c r="S5">
-        <v>0.006259008629399839</v>
+        <v>0.006407032810782992</v>
       </c>
       <c r="T5">
-        <v>0.006259008629399839</v>
+        <v>0.004833876446170021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H6">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I6">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J6">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N6">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O6">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P6">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q6">
-        <v>90.08933946946389</v>
+        <v>103.6472176022267</v>
       </c>
       <c r="R6">
-        <v>90.08933946946389</v>
+        <v>621.8833056133601</v>
       </c>
       <c r="S6">
-        <v>0.002787644893280236</v>
+        <v>0.002872947691908671</v>
       </c>
       <c r="T6">
-        <v>0.002787644893280236</v>
+        <v>0.002167535985709848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H7">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I7">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J7">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N7">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O7">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P7">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q7">
-        <v>67.21669198248316</v>
+        <v>77.44842919146376</v>
       </c>
       <c r="R7">
-        <v>67.21669198248316</v>
+        <v>309.793716765855</v>
       </c>
       <c r="S7">
-        <v>0.002079893905889626</v>
+        <v>0.002146755996301706</v>
       </c>
       <c r="T7">
-        <v>0.002079893905889626</v>
+        <v>0.001079766932438408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J8">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N8">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O8">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P8">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q8">
-        <v>4405.121023654615</v>
+        <v>4789.567872153797</v>
       </c>
       <c r="R8">
-        <v>4405.121023654615</v>
+        <v>28737.40723292278</v>
       </c>
       <c r="S8">
-        <v>0.1363081714017285</v>
+        <v>0.1327597429228873</v>
       </c>
       <c r="T8">
-        <v>0.1363081714017285</v>
+        <v>0.1001624641650783</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J9">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N9">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O9">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P9">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q9">
-        <v>4559.43071153534</v>
+        <v>5325.941515977515</v>
       </c>
       <c r="R9">
-        <v>4559.43071153534</v>
+        <v>47933.47364379763</v>
       </c>
       <c r="S9">
-        <v>0.1410829939938086</v>
+        <v>0.1476272276240964</v>
       </c>
       <c r="T9">
-        <v>0.1410829939938086</v>
+        <v>0.1670691721504445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J10">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N10">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O10">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P10">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q10">
-        <v>5505.276274571308</v>
+        <v>6162.877623131993</v>
       </c>
       <c r="R10">
-        <v>5505.276274571308</v>
+        <v>55465.89860818793</v>
       </c>
       <c r="S10">
-        <v>0.1703504030918928</v>
+        <v>0.1708258596081433</v>
       </c>
       <c r="T10">
-        <v>0.1703504030918928</v>
+        <v>0.193322975754116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J11">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N11">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O11">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P11">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q11">
-        <v>7668.829753012739</v>
+        <v>8339.605321404817</v>
       </c>
       <c r="R11">
-        <v>7668.829753012739</v>
+        <v>75056.44789264337</v>
       </c>
       <c r="S11">
-        <v>0.2372974896288104</v>
+        <v>0.2311615344225556</v>
       </c>
       <c r="T11">
-        <v>0.2372974896288104</v>
+        <v>0.2616046295155049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J12">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N12">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O12">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P12">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q12">
-        <v>3415.552743928933</v>
+        <v>3739.52351535269</v>
       </c>
       <c r="R12">
-        <v>3415.552743928933</v>
+        <v>33655.71163817421</v>
       </c>
       <c r="S12">
-        <v>0.1056878452035946</v>
+        <v>0.1036540652109112</v>
       </c>
       <c r="T12">
-        <v>0.1056878452035946</v>
+        <v>0.1173049114551583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J13">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N13">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O13">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P13">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q13">
-        <v>2548.383172644016</v>
+        <v>2794.288441973424</v>
       </c>
       <c r="R13">
-        <v>2548.383172644016</v>
+        <v>16765.73065184054</v>
       </c>
       <c r="S13">
-        <v>0.0788549164549075</v>
+        <v>0.07745354593794865</v>
       </c>
       <c r="T13">
-        <v>0.0788549164549075</v>
+        <v>0.0584359222808542</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H14">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I14">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J14">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N14">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O14">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P14">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q14">
-        <v>6.474061300587056</v>
+        <v>6.781976825686166</v>
       </c>
       <c r="R14">
-        <v>6.474061300587056</v>
+        <v>40.691860954117</v>
       </c>
       <c r="S14">
-        <v>0.0002003276306569206</v>
+        <v>0.0001879863745374153</v>
       </c>
       <c r="T14">
-        <v>0.0002003276306569206</v>
+        <v>0.0001418289768312044</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H15">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I15">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J15">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N15">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O15">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P15">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q15">
-        <v>6.700845167193624</v>
+        <v>7.541476162457334</v>
       </c>
       <c r="R15">
-        <v>6.700845167193624</v>
+        <v>67.873285462116</v>
       </c>
       <c r="S15">
-        <v>0.0002073450301777422</v>
+        <v>0.0002090385736900919</v>
       </c>
       <c r="T15">
-        <v>0.0002073450301777422</v>
+        <v>0.0002365681589770158</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H16">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I16">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J16">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N16">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O16">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P16">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q16">
-        <v>8.090923242938052</v>
+        <v>8.726568729221444</v>
       </c>
       <c r="R16">
-        <v>8.090923242938052</v>
+        <v>78.539118562993</v>
       </c>
       <c r="S16">
-        <v>0.000250358377505294</v>
+        <v>0.0002418875881947508</v>
       </c>
       <c r="T16">
-        <v>0.000250358377505294</v>
+        <v>0.0002737432637837358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H17">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I17">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J17">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N17">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O17">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P17">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q17">
-        <v>11.2706265408301</v>
+        <v>11.80879184403389</v>
       </c>
       <c r="R17">
-        <v>11.2706265408301</v>
+        <v>106.279126596305</v>
       </c>
       <c r="S17">
-        <v>0.0003487483059109688</v>
+        <v>0.0003273222577256937</v>
       </c>
       <c r="T17">
-        <v>0.0003487483059109688</v>
+        <v>0.0003704293544270288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H18">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I18">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J18">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N18">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O18">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P18">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q18">
-        <v>5.019725387984702</v>
+        <v>5.295125259144889</v>
       </c>
       <c r="R18">
-        <v>5.019725387984702</v>
+        <v>47.656127332304</v>
       </c>
       <c r="S18">
-        <v>0.0001553259456212103</v>
+        <v>0.0001467730465279832</v>
       </c>
       <c r="T18">
-        <v>0.0001553259456212103</v>
+        <v>0.0001661024986519922</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H19">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I19">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J19">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N19">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O19">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P19">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q19">
-        <v>3.745274826387028</v>
+        <v>3.9566825157495</v>
       </c>
       <c r="R19">
-        <v>3.745274826387028</v>
+        <v>23.740095094497</v>
       </c>
       <c r="S19">
-        <v>0.0001158904738917268</v>
+        <v>0.0001096733917630386</v>
       </c>
       <c r="T19">
-        <v>0.0001158904738917268</v>
+        <v>8.274464028382916E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H20">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I20">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J20">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N20">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O20">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P20">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q20">
-        <v>96.05588551759259</v>
+        <v>112.6003576198558</v>
       </c>
       <c r="R20">
-        <v>96.05588551759259</v>
+        <v>675.6021457191349</v>
       </c>
       <c r="S20">
-        <v>0.002972268420542581</v>
+        <v>0.003121115501368808</v>
       </c>
       <c r="T20">
-        <v>0.002972268420542581</v>
+        <v>0.002354769696582692</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H21">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I21">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J21">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N21">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O21">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P21">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q21">
-        <v>99.42068608350971</v>
+        <v>125.2102351128867</v>
       </c>
       <c r="R21">
-        <v>99.42068608350971</v>
+        <v>1126.89211601598</v>
       </c>
       <c r="S21">
-        <v>0.003076385835208105</v>
+        <v>0.003470642669361746</v>
       </c>
       <c r="T21">
-        <v>0.003076385835208105</v>
+        <v>0.003927713111816454</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H22">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I22">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J22">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N22">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O22">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P22">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q22">
-        <v>120.0453255956679</v>
+        <v>144.8861865736572</v>
       </c>
       <c r="R22">
-        <v>120.0453255956679</v>
+        <v>1303.975679162915</v>
       </c>
       <c r="S22">
-        <v>0.003714576450772574</v>
+        <v>0.004016030964803199</v>
       </c>
       <c r="T22">
-        <v>0.003714576450772574</v>
+        <v>0.004544926971931462</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H23">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I23">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J23">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N23">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O23">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P23">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q23">
-        <v>167.2227003194035</v>
+        <v>196.0599717269194</v>
       </c>
       <c r="R23">
-        <v>167.2227003194035</v>
+        <v>1764.539745542275</v>
       </c>
       <c r="S23">
-        <v>0.005174391435558499</v>
+        <v>0.005434492659612229</v>
       </c>
       <c r="T23">
-        <v>0.005174391435558499</v>
+        <v>0.006150194678253816</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H24">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I24">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J24">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N24">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O24">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P24">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q24">
-        <v>74.47785011771343</v>
+        <v>87.91433724212445</v>
       </c>
       <c r="R24">
-        <v>74.47785011771343</v>
+        <v>791.2290351791199</v>
       </c>
       <c r="S24">
-        <v>0.002304576765306481</v>
+        <v>0.00243685549992049</v>
       </c>
       <c r="T24">
-        <v>0.002304576765306481</v>
+        <v>0.002757780103129981</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H25">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I25">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J25">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N25">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O25">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P25">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q25">
-        <v>55.56878028367323</v>
+        <v>65.69233096967248</v>
       </c>
       <c r="R25">
-        <v>55.56878028367323</v>
+        <v>394.1539858180349</v>
       </c>
       <c r="S25">
-        <v>0.001719471221521155</v>
+        <v>0.001820894327908775</v>
       </c>
       <c r="T25">
-        <v>0.001719471221521155</v>
+        <v>0.001373799457968929</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H26">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I26">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J26">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.4408879226973</v>
+        <v>58.6738795</v>
       </c>
       <c r="N26">
-        <v>58.4408879226973</v>
+        <v>117.347759</v>
       </c>
       <c r="O26">
-        <v>0.1567514042980314</v>
+        <v>0.153749292579248</v>
       </c>
       <c r="P26">
-        <v>0.1567514042980314</v>
+        <v>0.1115519052933064</v>
       </c>
       <c r="Q26">
-        <v>441.9510857643266</v>
+        <v>505.10582645165</v>
       </c>
       <c r="R26">
-        <v>441.9510857643266</v>
+        <v>2020.4233058066</v>
       </c>
       <c r="S26">
-        <v>0.0136753437705931</v>
+        <v>0.01400078701430297</v>
       </c>
       <c r="T26">
-        <v>0.0136753437705931</v>
+        <v>0.007042061078297221</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H27">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I27">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J27">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>60.4880496525111</v>
+        <v>65.24464400000001</v>
       </c>
       <c r="N27">
-        <v>60.4880496525111</v>
+        <v>195.733932</v>
       </c>
       <c r="O27">
-        <v>0.1622423454418067</v>
+        <v>0.1709673528505113</v>
       </c>
       <c r="P27">
-        <v>0.1622423454418067</v>
+        <v>0.186066553219397</v>
       </c>
       <c r="Q27">
-        <v>457.4324615850215</v>
+        <v>561.6715668028002</v>
       </c>
       <c r="R27">
-        <v>457.4324615850215</v>
+        <v>3370.0294008168</v>
       </c>
       <c r="S27">
-        <v>0.01415438578046532</v>
+        <v>0.01556870573843716</v>
       </c>
       <c r="T27">
-        <v>0.01415438578046532</v>
+        <v>0.01174603005617922</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H28">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I28">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J28">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>73.0361849352296</v>
+        <v>75.49740366666667</v>
       </c>
       <c r="N28">
-        <v>73.0361849352296</v>
+        <v>226.492211</v>
       </c>
       <c r="O28">
-        <v>0.1958992233025532</v>
+        <v>0.1978337294932053</v>
       </c>
       <c r="P28">
-        <v>0.1958992233025532</v>
+        <v>0.2153056682671168</v>
       </c>
       <c r="Q28">
-        <v>552.3259892099034</v>
+        <v>649.9344989452334</v>
       </c>
       <c r="R28">
-        <v>552.3259892099034</v>
+        <v>3899.6069936714</v>
       </c>
       <c r="S28">
-        <v>0.01709068722574911</v>
+        <v>0.01801522377380647</v>
       </c>
       <c r="T28">
-        <v>0.01709068722574911</v>
+        <v>0.01359184016134967</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H29">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I29">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J29">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>101.739138990158</v>
+        <v>102.1630783333333</v>
       </c>
       <c r="N29">
-        <v>101.739138990158</v>
+        <v>306.489235</v>
       </c>
       <c r="O29">
-        <v>0.2728869029141849</v>
+        <v>0.2677085809788374</v>
       </c>
       <c r="P29">
-        <v>0.2728869029141849</v>
+        <v>0.2913516066049282</v>
       </c>
       <c r="Q29">
-        <v>769.3880866578181</v>
+        <v>879.4912924481667</v>
       </c>
       <c r="R29">
-        <v>769.3880866578181</v>
+        <v>5276.947754689</v>
       </c>
       <c r="S29">
-        <v>0.02380726491450522</v>
+        <v>0.02437819882816085</v>
       </c>
       <c r="T29">
-        <v>0.02380726491450522</v>
+        <v>0.01839247661057243</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H30">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I30">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J30">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>45.3127017464804</v>
+        <v>45.81046933333334</v>
       </c>
       <c r="N30">
-        <v>45.3127017464804</v>
+        <v>137.431408</v>
       </c>
       <c r="O30">
-        <v>0.1215387014771906</v>
+        <v>0.1200419558540242</v>
       </c>
       <c r="P30">
-        <v>0.1215387014771906</v>
+        <v>0.1306436146730484</v>
       </c>
       <c r="Q30">
-        <v>342.6710039426764</v>
+        <v>394.3685873498667</v>
       </c>
       <c r="R30">
-        <v>342.6710039426764</v>
+        <v>2366.2115240992</v>
       </c>
       <c r="S30">
-        <v>0.01060330866938809</v>
+        <v>0.01093131440475583</v>
       </c>
       <c r="T30">
-        <v>0.01060330866938809</v>
+        <v>0.008247284630398314</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H31">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I31">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J31">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.8083277569115</v>
+        <v>34.2310095</v>
       </c>
       <c r="N31">
-        <v>33.8083277569115</v>
+        <v>68.462019</v>
       </c>
       <c r="O31">
-        <v>0.09068142256623324</v>
+        <v>0.08969908824417376</v>
       </c>
       <c r="P31">
-        <v>0.09068142256623324</v>
+        <v>0.06508065194220319</v>
       </c>
       <c r="Q31">
-        <v>255.6707759096217</v>
+        <v>294.68449148265</v>
       </c>
       <c r="R31">
-        <v>255.6707759096217</v>
+        <v>1178.7379659306</v>
       </c>
       <c r="S31">
-        <v>0.007911250510023234</v>
+        <v>0.00816821859025159</v>
       </c>
       <c r="T31">
-        <v>0.007911250510023234</v>
+        <v>0.004108418630657828</v>
       </c>
     </row>
   </sheetData>
